--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1124.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1124.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,40 +399,40 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>221</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>305</v>
+        <v>146</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>326</v>
+        <v>206</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -443,24 +443,24 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>151</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>593</v>
+        <v>823</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>240</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -476,128 +476,128 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>2217</v>
+        <v>1124</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>83</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>2336</v>
+        <v>1490</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>5208</v>
+        <v>1691</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>5868</v>
+        <v>2104</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>234</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>6360</v>
+        <v>2703</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>7007</v>
+        <v>2774</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>85</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>7705</v>
+        <v>5513</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>194</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>7708</v>
+        <v>6496</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>193</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>8754</v>
+        <v>7007</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>375</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>8896</v>
+        <v>7703</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>9083</v>
+        <v>7704</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>9507</v>
+        <v>8600</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -608,45 +608,89 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>9760</v>
+        <v>11504</v>
       </c>
       <c r="B21">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>78</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>13293</v>
+        <v>11848</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>24258</v>
+        <v>11858</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>24724</v>
+        <v>12056</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>12250</v>
+      </c>
+      <c r="B25">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>12791</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>13028</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>13034</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
         <v>7</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1124.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1124.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,43 +399,43 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>166</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>169</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -443,10 +443,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -454,10 +454,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>823</v>
+        <v>378</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -465,24 +465,24 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1000</v>
+        <v>563</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>117</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1124</v>
+        <v>1274</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -493,51 +493,51 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1691</v>
+        <v>2050</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>499</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>2104</v>
+        <v>2057</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12">
-        <v>364</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>2703</v>
+        <v>3671</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>2774</v>
+        <v>4232</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C14">
-        <v>182</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -553,145 +553,90 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>6496</v>
+        <v>5872</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>7007</v>
+        <v>7706</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>7703</v>
+        <v>8600</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>7704</v>
+        <v>8927</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>192</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>8600</v>
+        <v>11492</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>11504</v>
+        <v>13034</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>150</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>11848</v>
+        <v>13486</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>159</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>11858</v>
+        <v>13490</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>12056</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>12250</v>
-      </c>
-      <c r="B25">
-        <v>14</v>
-      </c>
-      <c r="C25">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>12791</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>13028</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>13034</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>7</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1124.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1124.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -410,29 +410,29 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>264</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -443,109 +443,109 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>336</v>
+        <v>201</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>378</v>
+        <v>1277</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>563</v>
+        <v>2057</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1274</v>
+        <v>2108</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1490</v>
+        <v>2805</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="C10">
-        <v>54</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>2050</v>
+        <v>3671</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>499</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>2057</v>
+        <v>5976</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>3671</v>
+        <v>6872</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>4232</v>
+        <v>7324</v>
       </c>
       <c r="B14">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>32</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>5513</v>
+        <v>7573</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -553,29 +553,29 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>5872</v>
+        <v>7706</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>7706</v>
+        <v>8939</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>8600</v>
+        <v>9069</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -586,29 +586,29 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>8927</v>
+        <v>9785</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>37</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>11492</v>
+        <v>10407</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>95</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>13034</v>
+        <v>10410</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -619,24 +619,90 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>13486</v>
+        <v>11158</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>133</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>13490</v>
+        <v>11585</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C23">
-        <v>134</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>11965</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>13928</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>19969</v>
+      </c>
+      <c r="B26">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>19970</v>
+      </c>
+      <c r="B27">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>21793</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>24723</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1124.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1124.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,310 +399,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>264</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>107</v>
+        <v>2050</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>159</v>
+        <v>4232</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>201</v>
+        <v>6158</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>326</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1277</v>
+        <v>12720</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>2057</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>2108</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>2805</v>
-      </c>
-      <c r="B10">
-        <v>137</v>
-      </c>
-      <c r="C10">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>3671</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>5976</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>6872</v>
-      </c>
-      <c r="B13">
-        <v>29</v>
-      </c>
-      <c r="C13">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>7324</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>7573</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>7706</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>8939</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>9069</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>9785</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>10407</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>10410</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>11158</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>11585</v>
-      </c>
-      <c r="B23">
-        <v>29</v>
-      </c>
-      <c r="C23">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>11965</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>13928</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>19969</v>
-      </c>
-      <c r="B26">
-        <v>29</v>
-      </c>
-      <c r="C26">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>19970</v>
-      </c>
-      <c r="B27">
-        <v>29</v>
-      </c>
-      <c r="C27">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>21793</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>24723</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <v>62</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1124.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1124.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,65 +402,43 @@
         <v>88</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>201</v>
+        <v>1124</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>2050</v>
+        <v>4232</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C4">
-        <v>497</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>4232</v>
+        <v>12350</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>6158</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>12720</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>306</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1124.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1124.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,45 +399,111 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1124</v>
+        <v>146</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>199</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>4232</v>
+        <v>346</v>
       </c>
       <c r="B4">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
+        <v>3671</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>6098</v>
+      </c>
+      <c r="B6">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6158</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>6936</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>11681</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>11836</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
         <v>12350</v>
       </c>
-      <c r="B5">
+      <c r="B11">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C11">
         <v>7</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1124.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1124.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,13 +399,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -416,45 +416,45 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>346</v>
+        <v>159</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>163</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>3671</v>
+        <v>305</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>6098</v>
+        <v>3891</v>
       </c>
       <c r="B6">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>6158</v>
+        <v>11681</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -465,45 +465,34 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>6936</v>
+        <v>11836</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>11681</v>
+        <v>12350</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>11836</v>
+        <v>25278</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>12350</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
         <v>7</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1124.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1124.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,32 +399,32 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>133</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>168</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -432,51 +432,51 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>305</v>
+        <v>146</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>3891</v>
+        <v>305</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>11681</v>
+        <v>523</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>11836</v>
+        <v>1124</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>12350</v>
+        <v>3891</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -487,12 +487,56 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
+        <v>8853</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>11681</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>12350</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12353</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
         <v>25278</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
         <v>7</v>
       </c>
     </row>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1124.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1124.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,29 +399,29 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>142</v>
+        <v>11837</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -432,112 +432,46 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>146</v>
+        <v>11838</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>169</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>305</v>
+        <v>12349</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>162</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>523</v>
+        <v>13033</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1124</v>
+        <v>13034</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>3891</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>8853</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>11681</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>12350</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>12353</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>25278</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1124.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1124.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,13 +399,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -421,21 +421,21 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>11837</v>
+        <v>248</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>11838</v>
+        <v>2054</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -443,35 +443,90 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>12349</v>
+        <v>2055</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>13033</v>
+        <v>2057</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>54</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>13034</v>
+        <v>2879</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>54</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>6936</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>8853</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>11234</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>12343</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12349</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1124.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1124.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,120 +399,120 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>133</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>248</v>
+        <v>94</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>2054</v>
+        <v>98</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>936</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>2055</v>
+        <v>114</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>2057</v>
+        <v>145</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>511</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>2879</v>
+        <v>146</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>6936</v>
+        <v>159</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>8853</v>
+        <v>161</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>301</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>11234</v>
+        <v>248</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>200</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>12343</v>
+        <v>305</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -520,13 +520,739 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>12349</v>
+        <v>326</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>336</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>615</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>947</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>950</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>955</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>1007</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>1070</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>1163</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>1309</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>1413</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>1414</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>1801</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>2055</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>2057</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>2099</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>2331</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>2422</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>2423</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>2879</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>2912</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>3016</v>
+      </c>
+      <c r="B34">
+        <v>68</v>
+      </c>
+      <c r="C34">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>3429</v>
+      </c>
+      <c r="B35">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>3456</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>3495</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>3671</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>3891</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>3982</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>5165</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>5539</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>5585</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>6098</v>
+      </c>
+      <c r="B44">
+        <v>29</v>
+      </c>
+      <c r="C44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>6628</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>6936</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>7084</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>7520</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>7558</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>8216</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>8649</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>8672</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>8675</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>8676</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>8915</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>8938</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>9070</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>10149</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>11234</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>11410</v>
+      </c>
+      <c r="B60">
+        <v>29</v>
+      </c>
+      <c r="C60">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>11427</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>11492</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>11835</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>12010</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>12147</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>12294</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>12343</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>12352</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>12764</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>12924</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>12930</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>13034</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>20252</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>20927</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>20969</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>21712</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>21793</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>21946</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>24724</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1124.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1124.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,68 +399,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>159</v>
+        <v>916</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>936</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>271</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -471,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -479,10 +479,10 @@
         <v>159</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>44</v>
+        <v>791</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -490,326 +490,326 @@
         <v>161</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>45</v>
+        <v>801</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>31</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>615</v>
+        <v>435</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>947</v>
+        <v>593</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>950</v>
+        <v>955</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>955</v>
+        <v>1007</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18">
-        <v>119</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1007</v>
+        <v>1139</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>295</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1070</v>
+        <v>1260</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1163</v>
+        <v>1406</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C21">
-        <v>361</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1309</v>
+        <v>1407</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C22">
-        <v>57</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C23">
-        <v>29</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C24">
-        <v>28</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1801</v>
+        <v>1414</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C25">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>2055</v>
+        <v>1691</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>2057</v>
+        <v>2049</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>599</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>2099</v>
+        <v>2055</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>113</v>
+        <v>525</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>2331</v>
+        <v>2308</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C29">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>2422</v>
+        <v>2331</v>
       </c>
       <c r="B30">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>41</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="B31">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C31">
-        <v>41</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>2879</v>
+        <v>2438</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>2912</v>
+        <v>2878</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33">
-        <v>53</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>3016</v>
+        <v>2879</v>
       </c>
       <c r="B34">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>3429</v>
+        <v>3495</v>
       </c>
       <c r="B35">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>60</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>3456</v>
+        <v>3671</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>3495</v>
+        <v>3891</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>1146</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>3671</v>
+        <v>3982</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>99</v>
+        <v>929</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>3891</v>
+        <v>4222</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -817,263 +817,263 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>3982</v>
+        <v>4223</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>5165</v>
+        <v>4750</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>5539</v>
+        <v>5490</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>182</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>5585</v>
+        <v>5538</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>281</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>6098</v>
+        <v>5539</v>
       </c>
       <c r="B44">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>42</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>6628</v>
+        <v>5577</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
       <c r="C45">
-        <v>118</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>6936</v>
+        <v>5585</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>13</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>7084</v>
+        <v>5646</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>7520</v>
+        <v>6097</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C48">
-        <v>22</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>7558</v>
+        <v>6628</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
       <c r="C49">
-        <v>74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>8216</v>
+        <v>7004</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>8649</v>
+        <v>7005</v>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>8672</v>
+        <v>7007</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>312</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>8675</v>
+        <v>7084</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53">
-        <v>313</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>8676</v>
+        <v>7204</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>316</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>8915</v>
+        <v>7324</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>171</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>8938</v>
+        <v>7885</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C56">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>9070</v>
+        <v>8155</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C57">
-        <v>38</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>10149</v>
+        <v>8285</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>1060</v>
+        <v>536</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>11234</v>
+        <v>8907</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C59">
-        <v>199</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>11410</v>
+        <v>8915</v>
       </c>
       <c r="B60">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C60">
-        <v>79</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>11427</v>
+        <v>8938</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>67</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>11492</v>
+        <v>8939</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62">
-        <v>96</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>11835</v>
+        <v>9068</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>7</v>
@@ -1081,128 +1081,128 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>12010</v>
+        <v>9877</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C64">
-        <v>163</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>12147</v>
+        <v>10149</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>42</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>12294</v>
+        <v>10574</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C66">
-        <v>7</v>
+        <v>578</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>12343</v>
+        <v>10825</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C67">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>12352</v>
+        <v>11212</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>7</v>
+        <v>268</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>12764</v>
+        <v>11435</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>68</v>
+        <v>550</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>12924</v>
+        <v>11493</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>12930</v>
+        <v>11681</v>
       </c>
       <c r="B71">
         <v>2</v>
       </c>
       <c r="C71">
-        <v>114</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>13034</v>
+        <v>11885</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C72">
-        <v>54</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>20252</v>
+        <v>11952</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73">
-        <v>101</v>
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>20927</v>
+        <v>12010</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C74">
-        <v>87</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>20969</v>
+        <v>12128</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -1213,46 +1213,189 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>21712</v>
+        <v>12349</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76">
-        <v>67</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>21793</v>
+        <v>13034</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C77">
-        <v>13</v>
+        <v>648</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>21946</v>
+        <v>13113</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78">
-        <v>81</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>24724</v>
+        <v>19989</v>
       </c>
       <c r="B79">
         <v>2</v>
       </c>
       <c r="C79">
-        <v>61</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>21091</v>
+      </c>
+      <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="C80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>21454</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>21712</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>21808</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>21809</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>21810</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>22361</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>22363</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>22364</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>23234</v>
+      </c>
+      <c r="B89">
+        <v>25</v>
+      </c>
+      <c r="C89">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>23238</v>
+      </c>
+      <c r="B90">
+        <v>29</v>
+      </c>
+      <c r="C90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>24257</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>24889</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/qd_uploads/qd_cart_rules_1124.xlsx
+++ b/Pricing Logic/modules/qd_uploads/qd_cart_rules_1124.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,24 +399,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>916</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>75</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -432,175 +432,175 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>97</v>
+        <v>793</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>143</v>
+        <v>214</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>172</v>
+        <v>726</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>146</v>
+        <v>305</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
-        <v>172</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>159</v>
+        <v>326</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>791</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>161</v>
+        <v>336</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>801</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>201</v>
+        <v>448</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>206</v>
+        <v>593</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>117</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>209</v>
+        <v>955</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>326</v>
+        <v>1139</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>102</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>435</v>
+        <v>1406</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C15">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>593</v>
+        <v>1447</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>253</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>955</v>
+        <v>1490</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1007</v>
+        <v>2057</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>300</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1139</v>
+        <v>2099</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>240</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1260</v>
+        <v>2328</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -608,794 +608,673 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1406</v>
+        <v>2331</v>
       </c>
       <c r="B21">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>90</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1407</v>
+        <v>2438</v>
       </c>
       <c r="B22">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>104</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1409</v>
+        <v>2497</v>
       </c>
       <c r="B23">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>64</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1413</v>
+        <v>2859</v>
       </c>
       <c r="B24">
         <v>15</v>
       </c>
       <c r="C24">
-        <v>115</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1414</v>
+        <v>2912</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>114</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>1691</v>
+        <v>2934</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>2049</v>
+        <v>3429</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C27">
-        <v>599</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>2055</v>
+        <v>3456</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28">
-        <v>525</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>2308</v>
+        <v>3495</v>
       </c>
       <c r="B29">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>115</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>2331</v>
+        <v>3671</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>138</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>2422</v>
+        <v>4222</v>
       </c>
       <c r="B31">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>208</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>2438</v>
+        <v>4232</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C32">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>2878</v>
+        <v>4750</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33">
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>2879</v>
+        <v>5080</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>3495</v>
+        <v>5165</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>1155</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>3671</v>
+        <v>5538</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>21</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>3891</v>
+        <v>5539</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37">
-        <v>126</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>3982</v>
+        <v>5577</v>
       </c>
       <c r="B38">
         <v>3</v>
       </c>
       <c r="C38">
-        <v>929</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>4222</v>
+        <v>5584</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>4223</v>
+        <v>5647</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>4750</v>
+        <v>6097</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>5490</v>
+        <v>6098</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="C42">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>5538</v>
+        <v>6494</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43">
-        <v>194</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>5539</v>
+        <v>6496</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44">
-        <v>186</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>5577</v>
+        <v>6628</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
       <c r="C45">
-        <v>241</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>5585</v>
+        <v>6630</v>
       </c>
       <c r="B46">
         <v>3</v>
       </c>
       <c r="C46">
-        <v>285</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>5646</v>
+        <v>7084</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>6097</v>
+        <v>7520</v>
       </c>
       <c r="B48">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>6628</v>
+        <v>7885</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>7004</v>
+        <v>8216</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>7005</v>
+        <v>8659</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51">
-        <v>90</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>7007</v>
+        <v>8672</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52">
-        <v>88</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>7084</v>
+        <v>8673</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53">
-        <v>7</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>7204</v>
+        <v>8915</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>7324</v>
+        <v>8938</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55">
-        <v>73</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>7885</v>
+        <v>8943</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C56">
-        <v>151</v>
+        <v>416</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>8155</v>
+        <v>8944</v>
       </c>
       <c r="B57">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C57">
-        <v>92</v>
+        <v>247</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>8285</v>
+        <v>9068</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>536</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>8907</v>
+        <v>9081</v>
       </c>
       <c r="B59">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C59">
-        <v>103</v>
+        <v>535</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>8915</v>
+        <v>9358</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>178</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>8938</v>
+        <v>10181</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C61">
-        <v>179</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>8939</v>
+        <v>10406</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C62">
-        <v>187</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>9068</v>
+        <v>10407</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C63">
-        <v>7</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>9877</v>
+        <v>10450</v>
       </c>
       <c r="B64">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C64">
-        <v>44</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>10149</v>
+        <v>10453</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C65">
-        <v>1026</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>10574</v>
+        <v>10468</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C66">
-        <v>578</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>10825</v>
+        <v>11212</v>
       </c>
       <c r="B67">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>10</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>11212</v>
+        <v>11234</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C68">
-        <v>268</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>11435</v>
+        <v>11404</v>
       </c>
       <c r="B69">
         <v>2</v>
       </c>
       <c r="C69">
-        <v>550</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>11493</v>
+        <v>11836</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>11681</v>
+        <v>11952</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71">
-        <v>13</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>11885</v>
+        <v>12010</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C72">
-        <v>220</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>11952</v>
+        <v>12720</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C73">
-        <v>227</v>
+        <v>312</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>12010</v>
+        <v>12721</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C74">
-        <v>169</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>12128</v>
+        <v>13033</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C75">
-        <v>7</v>
+        <v>649</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>12349</v>
+        <v>13034</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C76">
-        <v>9</v>
+        <v>649</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>13034</v>
+        <v>13118</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>431</v>
       </c>
       <c r="C77">
-        <v>648</v>
+        <v>931</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>13113</v>
+        <v>19981</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C78">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>19989</v>
+        <v>19985</v>
       </c>
       <c r="B79">
         <v>2</v>
       </c>
       <c r="C79">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>21091</v>
+        <v>20978</v>
       </c>
       <c r="B80">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>21454</v>
+        <v>24844</v>
       </c>
       <c r="B81">
         <v>2</v>
       </c>
       <c r="C81">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82">
-        <v>21712</v>
-      </c>
-      <c r="B82">
-        <v>3</v>
-      </c>
-      <c r="C82">
-        <v>2466</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83">
-        <v>21808</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="C83">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84">
-        <v>21809</v>
-      </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="C84">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85">
-        <v>21810</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86">
-        <v>22361</v>
-      </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="C86">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87">
-        <v>22363</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88">
-        <v>22364</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="C88">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89">
-        <v>23234</v>
-      </c>
-      <c r="B89">
-        <v>25</v>
-      </c>
-      <c r="C89">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90">
-        <v>23238</v>
-      </c>
-      <c r="B90">
-        <v>29</v>
-      </c>
-      <c r="C90">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91">
-        <v>24257</v>
-      </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-      <c r="C91">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92">
-        <v>24889</v>
-      </c>
-      <c r="B92">
-        <v>2</v>
-      </c>
-      <c r="C92">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
